--- a/code/case/npcc_htb.xlsx
+++ b/code/case/npcc_htb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwang175\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CEPD00615\hlcosim\code\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978C3493-4A18-4AE3-B937-CBA6AD6BD29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2CFEB5-0B89-488A-8E12-C1C70F803625}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="TGOV1NDB" sheetId="9" r:id="rId9"/>
     <sheet name="IEEEX1" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -2351,12 +2351,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A132" sqref="A132:XFD132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
@@ -8576,7 +8576,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
@@ -10137,12 +10137,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
@@ -13413,7 +13413,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
@@ -16120,7 +16120,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
@@ -16257,7 +16257,7 @@
       <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
@@ -31492,7 +31492,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -31603,10 +31603,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P39" sqref="P39"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
@@ -31696,7 +31696,7 @@
         <v>60</v>
       </c>
       <c r="K2">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="L2">
         <v>74</v>
@@ -31752,7 +31752,7 @@
         <v>60</v>
       </c>
       <c r="K3">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="L3">
         <v>21.42</v>
@@ -31808,7 +31808,7 @@
         <v>60</v>
       </c>
       <c r="K4">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="L4">
         <v>7.54</v>
@@ -31864,7 +31864,7 @@
         <v>60</v>
       </c>
       <c r="K5">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="L5">
         <v>17</v>
@@ -31920,7 +31920,7 @@
         <v>60</v>
       </c>
       <c r="K6">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="L6">
         <v>23.54</v>
@@ -32032,7 +32032,7 @@
         <v>60</v>
       </c>
       <c r="K8">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="L8">
         <v>197.4</v>
@@ -32088,10 +32088,10 @@
         <v>60</v>
       </c>
       <c r="K9">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="L9">
-        <v>54</v>
+        <v>200</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -32144,7 +32144,7 @@
         <v>60</v>
       </c>
       <c r="K10">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="L10">
         <v>72</v>
@@ -32200,7 +32200,7 @@
         <v>60</v>
       </c>
       <c r="K11">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="L11">
         <v>92</v>
@@ -32256,7 +32256,7 @@
         <v>60</v>
       </c>
       <c r="K12">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="L12">
         <v>60</v>
@@ -32312,7 +32312,7 @@
         <v>60</v>
       </c>
       <c r="K13">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="L13">
         <v>2000</v>
@@ -32368,7 +32368,7 @@
         <v>60</v>
       </c>
       <c r="K14">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="L14">
         <v>132</v>
@@ -32424,7 +32424,7 @@
         <v>60</v>
       </c>
       <c r="K15">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="L15">
         <v>380</v>
@@ -32480,7 +32480,7 @@
         <v>60</v>
       </c>
       <c r="K16">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="L16">
         <v>66</v>
@@ -32536,7 +32536,7 @@
         <v>60</v>
       </c>
       <c r="K17">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="L17">
         <v>48</v>
@@ -32592,7 +32592,7 @@
         <v>60</v>
       </c>
       <c r="K18">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="L18">
         <v>2000</v>
@@ -32648,7 +32648,7 @@
         <v>60</v>
       </c>
       <c r="K19">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="L19">
         <v>88</v>
@@ -32704,7 +32704,7 @@
         <v>60</v>
       </c>
       <c r="K20">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="L20">
         <v>230</v>
@@ -32760,10 +32760,10 @@
         <v>60</v>
       </c>
       <c r="K21">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="L21">
-        <v>7</v>
+        <v>200</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -32816,7 +32816,7 @@
         <v>60</v>
       </c>
       <c r="K22">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="L22">
         <v>2000</v>
@@ -32854,10 +32854,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomLeft" activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
@@ -32974,7 +32974,7 @@
         <v>60</v>
       </c>
       <c r="K2">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="L2">
         <v>9.2799999999999994</v>
@@ -33057,7 +33057,7 @@
         <v>60</v>
       </c>
       <c r="K3">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="L3">
         <v>8.1714000000000002</v>
@@ -33140,7 +33140,7 @@
         <v>60</v>
       </c>
       <c r="K4">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="L4">
         <v>4.8933999999999997</v>
@@ -33223,7 +33223,7 @@
         <v>60</v>
       </c>
       <c r="K5">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="L5">
         <v>12.4</v>
@@ -33306,7 +33306,7 @@
         <v>60</v>
       </c>
       <c r="K6">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="L6">
         <v>8.6999999999999993</v>
@@ -33389,7 +33389,7 @@
         <v>60</v>
       </c>
       <c r="K7">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="L7">
         <v>8.1229999999999993</v>
@@ -33472,7 +33472,7 @@
         <v>60</v>
       </c>
       <c r="K8">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="L8">
         <v>7.6</v>
@@ -33555,7 +33555,7 @@
         <v>60</v>
       </c>
       <c r="K9">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="L9">
         <v>8.1</v>
@@ -33638,7 +33638,7 @@
         <v>60</v>
       </c>
       <c r="K10">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="L10">
         <v>9.3230000000000004</v>
@@ -33721,7 +33721,7 @@
         <v>60</v>
       </c>
       <c r="K11">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="L11">
         <v>9.43</v>
@@ -33804,7 +33804,7 @@
         <v>60</v>
       </c>
       <c r="K12">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="L12">
         <v>6.7422000000000004</v>
@@ -33887,7 +33887,7 @@
         <v>60</v>
       </c>
       <c r="K13">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="L13">
         <v>6.0679999999999996</v>
@@ -33970,7 +33970,7 @@
         <v>60</v>
       </c>
       <c r="K14">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="L14">
         <v>9.84</v>
@@ -34053,7 +34053,7 @@
         <v>60</v>
       </c>
       <c r="K15">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="L15">
         <v>28.614000000000001</v>
@@ -34136,7 +34136,7 @@
         <v>60</v>
       </c>
       <c r="K16">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="L16">
         <v>15.7662</v>
@@ -34219,7 +34219,7 @@
         <v>60</v>
       </c>
       <c r="K17">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="L17">
         <v>15.7662</v>
@@ -34302,7 +34302,7 @@
         <v>60</v>
       </c>
       <c r="K18">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="L18">
         <v>9.9634</v>
@@ -34385,7 +34385,7 @@
         <v>60</v>
       </c>
       <c r="K19">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="L19">
         <v>8.7759999999999998</v>
@@ -34468,7 +34468,7 @@
         <v>60</v>
       </c>
       <c r="K20">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="L20">
         <v>10.119999999999999</v>
@@ -34551,7 +34551,7 @@
         <v>60</v>
       </c>
       <c r="K21">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="L21">
         <v>9.6622000000000003</v>
@@ -34634,7 +34634,7 @@
         <v>60</v>
       </c>
       <c r="K22">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="L22">
         <v>8.32</v>
@@ -34717,7 +34717,7 @@
         <v>60</v>
       </c>
       <c r="K23">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="L23">
         <v>8.3477999999999994</v>
@@ -34800,7 +34800,7 @@
         <v>60</v>
       </c>
       <c r="K24">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="L24">
         <v>5.95</v>
@@ -34883,7 +34883,7 @@
         <v>60</v>
       </c>
       <c r="K25">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="L25">
         <v>7.84</v>
@@ -34966,7 +34966,7 @@
         <v>60</v>
       </c>
       <c r="K26">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="L26">
         <v>8.3157999999999994</v>
@@ -35049,7 +35049,7 @@
         <v>60</v>
       </c>
       <c r="K27">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="L27">
         <v>22.154</v>
@@ -35132,7 +35132,7 @@
         <v>60</v>
       </c>
       <c r="K28">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="L28">
         <v>8.1479999999999997</v>
@@ -35197,10 +35197,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T41" sqref="T41"/>
+      <selection pane="bottomLeft" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
@@ -35275,7 +35275,7 @@
         <v>0.03</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J2">
         <v>0.3</v>
@@ -35322,7 +35322,7 @@
         <v>0.03</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J3">
         <v>0.3</v>
@@ -35369,7 +35369,7 @@
         <v>0.03</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J4">
         <v>0.3</v>
@@ -35416,7 +35416,7 @@
         <v>0.03</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J5">
         <v>0.3</v>
@@ -35463,7 +35463,7 @@
         <v>0.03</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J6">
         <v>0.3</v>
@@ -35510,7 +35510,7 @@
         <v>0.03</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J7">
         <v>0.3</v>
@@ -35557,7 +35557,7 @@
         <v>0.03</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J8">
         <v>0.3</v>
@@ -35604,7 +35604,7 @@
         <v>0.03</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J9">
         <v>0.3</v>
@@ -35651,7 +35651,7 @@
         <v>0.05</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J10">
         <v>0.3</v>
@@ -35698,7 +35698,7 @@
         <v>0.03</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J11">
         <v>0.3</v>
@@ -35745,7 +35745,7 @@
         <v>0.03</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J12">
         <v>0.3</v>
@@ -35792,7 +35792,7 @@
         <v>0.03</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J13">
         <v>0.3</v>
@@ -35839,7 +35839,7 @@
         <v>0.03</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J14">
         <v>0.3</v>
@@ -35886,7 +35886,7 @@
         <v>0.03</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J15">
         <v>0.3</v>
@@ -35933,7 +35933,7 @@
         <v>0.03</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J16">
         <v>0.3</v>
@@ -35980,7 +35980,7 @@
         <v>0.03</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J17">
         <v>0.3</v>
@@ -36027,7 +36027,7 @@
         <v>0.03</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J18">
         <v>0.3</v>
@@ -36074,7 +36074,7 @@
         <v>0.03</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J19">
         <v>0.3</v>
@@ -36121,7 +36121,7 @@
         <v>0.03</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J20">
         <v>0.3</v>
@@ -36168,7 +36168,7 @@
         <v>0.03</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J21">
         <v>0.3</v>
@@ -36215,7 +36215,7 @@
         <v>0.03</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J22">
         <v>0.3</v>
@@ -36262,7 +36262,7 @@
         <v>0.05</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J23">
         <v>0.3</v>
@@ -36309,7 +36309,7 @@
         <v>0.03</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J24">
         <v>0.3</v>
@@ -36356,7 +36356,7 @@
         <v>0.03</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J25">
         <v>0.3</v>
@@ -36403,7 +36403,7 @@
         <v>0.05</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J26">
         <v>0.3</v>
@@ -36450,7 +36450,7 @@
         <v>0.03</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J27">
         <v>0.3</v>
@@ -36497,7 +36497,7 @@
         <v>0.03</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J28">
         <v>0.3</v>
